--- a/biology/Zoologie/Comissia/Comissia.xlsx
+++ b/biology/Zoologie/Comissia/Comissia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comissia est un genre de crinoïdes de la famille des Comatulidae (ordre des Comatulida).
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre conservent une bouche centrale à l'âge adulte, et seulement 10 bras. Le centrodorsal est circulaire, fin, et porte une ou deux rangées de cirrhes. Les six premières pinnules orales portent des épines formant des peignes[2].
-On trouve ces espèces plutôt en profondeur, entre 29 et près de 1 000 m de profondeur[2]. Seule Comissia luetkeni fréquente des profondeurs accessibles en plongée sous-marine[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre conservent une bouche centrale à l'âge adulte, et seulement 10 bras. Le centrodorsal est circulaire, fin, et porte une ou deux rangées de cirrhes. Les six premières pinnules orales portent des épines formant des peignes.
+On trouve ces espèces plutôt en profondeur, entre 29 et près de 1 000 m de profondeur. Seule Comissia luetkeni fréquente des profondeurs accessibles en plongée sous-marine. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 avril 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 avril 2015) :
 Comissia chadwicki AH Clark, 1912 -- Sri Lanka
 Comissia dawsoni (McKnight, 1977) -- Pacifique sud-ouest
 Comissia decumatilos (McKnight, 1977) -- Nouvelle-Zélande
